--- a/results/mp/logistic/corona/confidence/210/stop-words-desired-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/stop-words-desired-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,24 @@
     <t>name</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>crisis</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
@@ -70,28 +70,40 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>support</t>
@@ -100,64 +112,55 @@
     <t>good</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>better</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
+    <t>care</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -515,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -526,7 +529,7 @@
         <v>16</v>
       </c>
       <c r="J1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -584,13 +587,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.868421052631579</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -608,13 +611,13 @@
         <v>17</v>
       </c>
       <c r="K3">
-        <v>0.9782608695652174</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -626,7 +629,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -634,13 +637,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8648648648648649</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -658,13 +661,13 @@
         <v>18</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.95</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -676,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -684,13 +687,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.839041095890411</v>
+        <v>0.8458904109589042</v>
       </c>
       <c r="C5">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D5">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -702,19 +705,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5">
-        <v>0.9666666666666667</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>116</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -734,13 +737,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.8157894736842105</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -752,19 +755,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K6">
-        <v>0.9491525423728814</v>
+        <v>0.9086161879895561</v>
       </c>
       <c r="L6">
-        <v>56</v>
+        <v>348</v>
       </c>
       <c r="M6">
-        <v>56</v>
+        <v>348</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -776,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -784,13 +787,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5714285714285714</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C7">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>108</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -802,19 +805,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>81</v>
+        <v>7</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K7">
-        <v>0.9166666666666666</v>
+        <v>0.9069767441860465</v>
       </c>
       <c r="L7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M7">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -826,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -834,13 +837,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5423728813559322</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C8">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="D8">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -852,19 +855,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K8">
-        <v>0.9164490861618799</v>
+        <v>0.8943661971830986</v>
       </c>
       <c r="L8">
-        <v>351</v>
+        <v>127</v>
       </c>
       <c r="M8">
-        <v>351</v>
+        <v>127</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -876,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>32</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -884,13 +887,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4437984496124031</v>
+        <v>0.4864341085271318</v>
       </c>
       <c r="C9">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="D9">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -902,19 +905,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="K9">
-        <v>0.90625</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L9">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="M9">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -934,13 +937,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1677852348993289</v>
+        <v>0.302013422818792</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -952,19 +955,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K10">
-        <v>0.8928571428571429</v>
+        <v>0.890625</v>
       </c>
       <c r="L10">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="M10">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -976,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -984,13 +987,13 @@
         <v>25</v>
       </c>
       <c r="K11">
-        <v>0.8873239436619719</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L11">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="M11">
-        <v>126</v>
+        <v>32</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1002,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1010,13 +1013,13 @@
         <v>26</v>
       </c>
       <c r="K12">
-        <v>0.8867924528301887</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L12">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="M12">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1028,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1036,13 +1039,13 @@
         <v>27</v>
       </c>
       <c r="K13">
-        <v>0.88125</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="L13">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="M13">
-        <v>141</v>
+        <v>29</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1054,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1088,13 +1091,13 @@
         <v>29</v>
       </c>
       <c r="K15">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L15">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M15">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1106,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1114,13 +1117,13 @@
         <v>30</v>
       </c>
       <c r="K16">
-        <v>0.8536585365853658</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L16">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="M16">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1132,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1140,13 +1143,13 @@
         <v>31</v>
       </c>
       <c r="K17">
-        <v>0.8372093023255814</v>
+        <v>0.84375</v>
       </c>
       <c r="L17">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="M17">
-        <v>36</v>
+        <v>135</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1158,7 +1161,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1166,13 +1169,13 @@
         <v>32</v>
       </c>
       <c r="K18">
-        <v>0.8275862068965517</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L18">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="M18">
-        <v>48</v>
+        <v>68</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1184,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1192,13 +1195,13 @@
         <v>33</v>
       </c>
       <c r="K19">
-        <v>0.7916666666666666</v>
+        <v>0.8125</v>
       </c>
       <c r="L19">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1210,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1218,13 +1221,13 @@
         <v>34</v>
       </c>
       <c r="K20">
-        <v>0.7619047619047619</v>
+        <v>0.8</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1236,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1244,13 +1247,13 @@
         <v>35</v>
       </c>
       <c r="K21">
-        <v>0.76</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1262,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1270,13 +1273,13 @@
         <v>36</v>
       </c>
       <c r="K22">
-        <v>0.7529411764705882</v>
+        <v>0.7619047619047619</v>
       </c>
       <c r="L22">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="M22">
-        <v>256</v>
+        <v>48</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1288,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>84</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1296,13 +1299,13 @@
         <v>37</v>
       </c>
       <c r="K23">
-        <v>0.7254237288135593</v>
+        <v>0.7558823529411764</v>
       </c>
       <c r="L23">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="M23">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1314,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1322,13 +1325,13 @@
         <v>38</v>
       </c>
       <c r="K24">
-        <v>0.7142857142857143</v>
+        <v>0.7288135593220338</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="M24">
-        <v>25</v>
+        <v>215</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1340,7 +1343,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1348,13 +1351,13 @@
         <v>39</v>
       </c>
       <c r="K25">
-        <v>0.7112970711297071</v>
+        <v>0.7196652719665272</v>
       </c>
       <c r="L25">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M25">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1366,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1374,13 +1377,13 @@
         <v>40</v>
       </c>
       <c r="K26">
-        <v>0.6923076923076923</v>
+        <v>0.6914893617021277</v>
       </c>
       <c r="L26">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="M26">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1392,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1400,13 +1403,13 @@
         <v>41</v>
       </c>
       <c r="K27">
-        <v>0.6914893617021277</v>
+        <v>0.675</v>
       </c>
       <c r="L27">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1418,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1426,13 +1429,13 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>0.6857142857142857</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1444,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1452,13 +1455,13 @@
         <v>43</v>
       </c>
       <c r="K29">
-        <v>0.675</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1470,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1478,13 +1481,13 @@
         <v>44</v>
       </c>
       <c r="K30">
-        <v>0.651685393258427</v>
+        <v>0.6179775280898876</v>
       </c>
       <c r="L30">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="M30">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1496,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1504,13 +1507,13 @@
         <v>45</v>
       </c>
       <c r="K31">
-        <v>0.5098039215686274</v>
+        <v>0.6</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1522,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1530,13 +1533,13 @@
         <v>46</v>
       </c>
       <c r="K32">
-        <v>0.4383561643835616</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1548,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1556,13 +1559,13 @@
         <v>47</v>
       </c>
       <c r="K33">
-        <v>0.4230769230769231</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M33">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1574,7 +1577,33 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>45</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="10:17">
+      <c r="J34" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K34">
+        <v>0.3972602739726027</v>
+      </c>
+      <c r="L34">
+        <v>29</v>
+      </c>
+      <c r="M34">
+        <v>29</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
